--- a/Book3_reduced.xlsx
+++ b/Book3_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-22.04\home\mark\terraform\aci_config_terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BCA00-E70C-4A93-92F4-5A8D183F8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8FFB1-1DFE-4C06-8CB8-10233A4CCF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="570" windowWidth="28275" windowHeight="14745" tabRatio="687" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1455" windowWidth="38700" windowHeight="15345" tabRatio="687" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TENANT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>lldp TX and RX on</t>
+  </si>
+  <si>
+    <t>bd_vlan101_10.50.100.0_24_prd_usr</t>
   </si>
 </sst>
 </file>
@@ -1026,9 +1029,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1066,7 +1069,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1172,7 +1175,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1314,7 +1317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1328,16 +1331,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="27.296875" customWidth="1"/>
-    <col min="3" max="3" width="59.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="59.625" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1380,16 +1383,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1563,15 +1566,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" customWidth="1"/>
-    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1626,16 +1629,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -1699,15 +1702,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1760,16 +1763,16 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="51.09765625" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1894,13 +1897,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.796875" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1946,14 +1949,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="36.69921875" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1993,21 +1996,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.8984375" customWidth="1"/>
-    <col min="3" max="3" width="70.09765625" customWidth="1"/>
-    <col min="4" max="4" width="27.8984375" customWidth="1"/>
-    <col min="5" max="5" width="32.59765625" customWidth="1"/>
+    <col min="2" max="2" width="51.875" customWidth="1"/>
+    <col min="3" max="3" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2188,6 +2191,20 @@
         <v>118</v>
       </c>
       <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2200,19 +2217,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="54.8984375" customWidth="1"/>
-    <col min="3" max="3" width="55.59765625" customWidth="1"/>
-    <col min="4" max="4" width="40.59765625" customWidth="1"/>
-    <col min="5" max="5" width="52.59765625" customWidth="1"/>
+    <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2246,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2263,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2280,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2314,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2382,7 +2399,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2412,17 +2429,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" customWidth="1"/>
-    <col min="5" max="5" width="38.796875" customWidth="1"/>
-    <col min="6" max="6" width="35.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2475,16 +2492,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2520,7 +2537,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2529,7 +2546,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2538,7 +2555,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2547,7 +2564,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2556,7 +2573,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2565,7 +2582,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2574,7 +2591,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2583,7 +2600,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2592,7 +2609,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2601,7 +2618,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2610,7 +2627,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2619,7 +2636,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2628,7 +2645,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2637,7 +2654,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2646,7 +2663,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2655,7 +2672,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2664,7 +2681,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2673,7 +2690,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2682,7 +2699,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2691,7 +2708,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2713,16 +2730,16 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.296875" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2754,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2764,13 +2781,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>

--- a/Book3_reduced.xlsx
+++ b/Book3_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-22.04\home\mark\terraform\aci_config_terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8FFB1-1DFE-4C06-8CB8-10233A4CCF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8ACEA-C2EB-47A3-980C-306B2F2C0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1455" windowWidth="38700" windowHeight="15345" tabRatio="687" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1455" windowWidth="38700" windowHeight="15345" tabRatio="687" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TENANT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
   <si>
     <t>type</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>static</t>
-  </si>
-  <si>
-    <t>vlan-1024</t>
-  </si>
-  <si>
-    <t>vlan-1034</t>
   </si>
   <si>
     <t>physical_domain</t>
@@ -1356,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1367,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1397,160 +1391,160 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1579,41 +1573,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1643,50 +1637,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1715,30 +1709,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1747,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1777,33 +1771,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1811,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1833,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>55</v>
@@ -1861,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2">
         <v>101</v>
@@ -1911,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,10 +1913,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,10 +1924,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,10 +1966,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,10 +1977,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2021,10 +2015,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2032,16 +2026,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2049,16 +2043,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2066,16 +2060,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2083,16 +2077,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2100,16 +2094,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2117,16 +2111,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,16 +2128,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2151,16 +2145,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,16 +2162,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,13 +2179,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,13 +2193,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2251,16 +2245,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,16 +2262,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2285,16 +2279,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2302,16 +2296,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,16 +2313,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2336,16 +2330,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,16 +2347,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2370,16 +2364,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2387,16 +2381,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,16 +2398,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
         <v>143</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2450,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2467,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -2476,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2488,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67D955-82DD-4325-AFFB-135E2F3A7F6E}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2525,11 +2519,11 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
+      <c r="C2" s="2">
+        <v>1024</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1034</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -2744,22 +2738,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2792,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Book3_reduced.xlsx
+++ b/Book3_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-22.04\home\mark\terraform\aci_config_terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8ACEA-C2EB-47A3-980C-306B2F2C0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3A2FA-25C7-41B9-8DD1-206D0B077959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1455" windowWidth="38700" windowHeight="15345" tabRatio="687" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1455" windowWidth="38700" windowHeight="15345" tabRatio="687" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TENANT" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
     <t>lldp TX and RX on</t>
   </si>
   <si>
-    <t>bd_vlan101_10.50.100.0_24_prd_usr</t>
+    <t>bd_vlan101_10.60.100.0_24_prd_usr</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67D955-82DD-4325-AFFB-135E2F3A7F6E}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
